--- a/examples/Introduction/Employees.xlsx
+++ b/examples/Introduction/Employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruss\projects\github\frosts\examples\Introduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFB0D9E4-D5E5-411F-883B-9B2B5AD688C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1113FE-41A1-4B49-8C53-FC36F4B48FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="4" xr2:uid="{65179740-1273-4680-8D07-D18E0F9431AC}"/>
   </bookViews>
@@ -742,9 +742,10 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
